--- a/assets/backend/files/format_target_mitra.xlsx
+++ b/assets/backend/files/format_target_mitra.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\mamifa\assets\backend\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\mamifa\assets\backend\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NIK</t>
   </si>
@@ -45,12 +45,15 @@
   </si>
   <si>
     <t>JENIS TEKNISI MITRA</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,10 +377,11 @@
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,6 +401,9 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
